--- a/pages/DiaDeSorte/base.xlsx
+++ b/pages/DiaDeSorte/base.xlsx
@@ -83682,6 +83682,314 @@
         <x:v/>
       </x:c>
     </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>1080</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>24/06/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>07</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>09</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Outubro</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>CANAL ELETRONICO</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$164.819,43</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$3.071,17</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1017</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$25,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>13343</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>46765</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Não</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.245.532,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$150.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>1081</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>26/06/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>05</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>09</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Novembro</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>SERINGUEIRAS/RO</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$160.080,48</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.719,44</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1428</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$25,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>14029</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>40674</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Não</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.219.970,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$150.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>1082</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>28/06/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>05</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Mar&amp;ccedil;o</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>CAMPO LIMPO PAULISTA/SP</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$167.620,09</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.941,55</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1078</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$25,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>13971</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>44254</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Não</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.254.902,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$150.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>1083</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>01/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>03</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Fevereiro</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$3.939,37</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>974</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$25,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>12505</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>42387</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.297.147,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$400.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="2" type="noConversion"/>
   <x:pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -83870,7 +84178,7 @@
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-06-23T04:05:09+00:00</AtualizadoPeloTimerJobEm>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-03T04:02:17+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
 </file>

--- a/pages/DiaDeSorte/base.xlsx
+++ b/pages/DiaDeSorte/base.xlsx
@@ -83990,6 +83990,160 @@
         <x:v/>
       </x:c>
     </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>1084</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>03/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>06</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>09</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Mar&amp;ccedil;o</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.136,99</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1469</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$25,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>17397</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>54963</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.595.547,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$650.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>1085</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>05/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>08</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>09</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Agosto</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>SAO PAULO/SP</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$665.867,06</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.820,54</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1777</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$25,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>22807</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>69494</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Não</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.005.837,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$150.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="2" type="noConversion"/>
   <x:pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -84178,7 +84332,7 @@
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-03T04:02:17+00:00</AtualizadoPeloTimerJobEm>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-06T04:02:19+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
 </file>

--- a/pages/DiaDeSorte/base.xlsx
+++ b/pages/DiaDeSorte/base.xlsx
@@ -84144,6 +84144,545 @@
         <x:v/>
       </x:c>
     </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>1086</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>08/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Fevereiro</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5.825,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>899</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$25,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>12707</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45572</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.406.740,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$400.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>1087</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>05</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>08</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Abril</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>JUNDIAI/SP</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$410.682,89</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.302,12</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1352</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$25,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>17037</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>57773</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Não</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.565.367,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$150.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>1088</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>12/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>06</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>07</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Dezembro</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.883,57</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1283</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$25,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15919</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>41906</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.395.497,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$400.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>1089</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>07</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Agosto</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>RONDONOPOLIS/MT; SAO GONCALO/RJ</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$203.477,38</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.692,12</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1462</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$25,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>17237</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>54484</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Não</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.586.690,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$150.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>1090</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>17/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>04</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>09</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Maio</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.417,99</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1240</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$25,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>14117</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>41792</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.259.402,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$350.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>1091</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>19/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>06</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>07</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Julho</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>MUCURICI/ES</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$377.414,16</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.973,64</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1101</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$25,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>13918</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>51516</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Não</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.485.980,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$150.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>1092</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>22/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>08</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Agosto</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.394,94</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1177</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$25,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>13256</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>43733</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.233.910,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$350.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="2" type="noConversion"/>
   <x:pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -84332,7 +84871,7 @@
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-06T04:02:19+00:00</AtualizadoPeloTimerJobEm>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-23T04:00:37+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
 </file>
